--- a/Code/Results/Cases/Case_0_71/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_71/res_line/pl_mw.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.034200299938135</v>
+        <v>0.01949460275857007</v>
       </c>
       <c r="D2">
-        <v>0.1384953551048937</v>
+        <v>0.1550633964863124</v>
       </c>
       <c r="E2">
-        <v>0.1541607004991548</v>
+        <v>0.1571220482723845</v>
       </c>
       <c r="F2">
-        <v>1.205275220621445</v>
+        <v>1.708931743415746</v>
       </c>
       <c r="G2">
-        <v>0.8720057154413468</v>
+        <v>1.075093835350231</v>
       </c>
       <c r="H2">
-        <v>0.5500733000213103</v>
+        <v>1.050068151600698</v>
       </c>
       <c r="I2">
-        <v>0.6952165967306101</v>
+        <v>0.918156576558296</v>
       </c>
       <c r="J2">
-        <v>0.202114152037062</v>
+        <v>0.1948255997740915</v>
       </c>
       <c r="K2">
-        <v>4.037405453680151</v>
+        <v>1.655386014733381</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.7198093224812609</v>
+        <v>1.239475840486527</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.03078962480038427</v>
+        <v>0.01832807991338825</v>
       </c>
       <c r="D3">
-        <v>0.1232110178847847</v>
+        <v>0.1514779638615806</v>
       </c>
       <c r="E3">
-        <v>0.1372479171213605</v>
+        <v>0.153602383405218</v>
       </c>
       <c r="F3">
-        <v>1.111282571597997</v>
+        <v>1.700992747160967</v>
       </c>
       <c r="G3">
-        <v>0.7977286659635183</v>
+        <v>1.067889848414708</v>
       </c>
       <c r="H3">
-        <v>0.5241194311351194</v>
+        <v>1.05283553585322</v>
       </c>
       <c r="I3">
-        <v>0.6384385721736905</v>
+        <v>0.9129079596918359</v>
       </c>
       <c r="J3">
-        <v>0.179918486739119</v>
+        <v>0.1905101747098357</v>
       </c>
       <c r="K3">
-        <v>3.50134235538485</v>
+        <v>1.50418787687812</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.7473666354983521</v>
+        <v>1.251296326750733</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.02869240220061187</v>
+        <v>0.01760542479859595</v>
       </c>
       <c r="D4">
-        <v>0.1139180861787565</v>
+        <v>0.149327481499455</v>
       </c>
       <c r="E4">
-        <v>0.1270489938265946</v>
+        <v>0.1515195150002171</v>
       </c>
       <c r="F4">
-        <v>1.056366134381236</v>
+        <v>1.697256849473021</v>
       </c>
       <c r="G4">
-        <v>0.7544979946679007</v>
+        <v>1.064319515806361</v>
       </c>
       <c r="H4">
-        <v>0.5095177079859639</v>
+        <v>1.055148988853105</v>
       </c>
       <c r="I4">
-        <v>0.6053088188548159</v>
+        <v>0.9103511746336679</v>
       </c>
       <c r="J4">
-        <v>0.1666128779399116</v>
+        <v>0.1879787733455558</v>
       </c>
       <c r="K4">
-        <v>3.174196395076592</v>
+        <v>1.41170260747856</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7654567383383082</v>
+        <v>1.259080556884527</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0278366955209961</v>
+        <v>0.01730933722922856</v>
       </c>
       <c r="D5">
-        <v>0.1101518838369913</v>
+        <v>0.1484640279873872</v>
       </c>
       <c r="E5">
-        <v>0.1229351138734316</v>
+        <v>0.1506904007283403</v>
       </c>
       <c r="F5">
-        <v>1.034636252308829</v>
+        <v>1.696020123208839</v>
       </c>
       <c r="G5">
-        <v>0.7374301364115752</v>
+        <v>1.063078267157707</v>
       </c>
       <c r="H5">
-        <v>0.5038805246385465</v>
+        <v>1.056245968411574</v>
       </c>
       <c r="I5">
-        <v>0.5922095092037907</v>
+        <v>0.9094762274126467</v>
       </c>
       <c r="J5">
-        <v>0.1612642140518687</v>
+        <v>0.1869768863124861</v>
       </c>
       <c r="K5">
-        <v>3.041297349666252</v>
+        <v>1.374103365154212</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7731122074870456</v>
+        <v>1.2623851120021</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.02769453293414159</v>
+        <v>0.01726007581734024</v>
       </c>
       <c r="D6">
-        <v>0.1095276968604253</v>
+        <v>0.1483214323456821</v>
       </c>
       <c r="E6">
-        <v>0.122254436695286</v>
+        <v>0.1505539151383957</v>
       </c>
       <c r="F6">
-        <v>1.031065711049337</v>
+        <v>1.695832001441346</v>
       </c>
       <c r="G6">
-        <v>0.7346278340118317</v>
+        <v>1.062885042160431</v>
       </c>
       <c r="H6">
-        <v>0.502962762530089</v>
+        <v>1.056437429273686</v>
       </c>
       <c r="I6">
-        <v>0.5900576596826852</v>
+        <v>0.909341013316336</v>
       </c>
       <c r="J6">
-        <v>0.1603802966796195</v>
+        <v>0.186812314439301</v>
       </c>
       <c r="K6">
-        <v>3.019252237306489</v>
+        <v>1.367865460202211</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7744002267473249</v>
+        <v>1.26294183019791</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.0286808665639029</v>
+        <v>0.01760143812074944</v>
       </c>
       <c r="D7">
-        <v>0.1138672128192439</v>
+        <v>0.1493157844040951</v>
       </c>
       <c r="E7">
-        <v>0.1269933470848414</v>
+        <v>0.1515082536216319</v>
       </c>
       <c r="F7">
-        <v>1.056070518460587</v>
+        <v>1.697239014696379</v>
       </c>
       <c r="G7">
-        <v>0.754265650386813</v>
+        <v>1.064301911715191</v>
       </c>
       <c r="H7">
-        <v>0.5094404435093196</v>
+        <v>1.055163158952539</v>
       </c>
       <c r="I7">
-        <v>0.6051305756219563</v>
+        <v>0.9103386993990696</v>
       </c>
       <c r="J7">
-        <v>0.1665404562031938</v>
+        <v>0.1879651414595429</v>
       </c>
       <c r="K7">
-        <v>3.172402499953876</v>
+        <v>1.411195168224481</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7655588477703148</v>
+        <v>1.259124587049556</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.03302474225370844</v>
+        <v>0.01909372131397191</v>
       </c>
       <c r="D8">
-        <v>0.133204829424443</v>
+        <v>0.1538165937961935</v>
       </c>
       <c r="E8">
-        <v>0.1482879027245971</v>
+        <v>0.1558922330694124</v>
       </c>
       <c r="F8">
-        <v>1.172252756405157</v>
+        <v>1.705957646383297</v>
       </c>
       <c r="G8">
-        <v>0.8458717372946865</v>
+        <v>1.072432390802675</v>
       </c>
       <c r="H8">
-        <v>0.5408336104724327</v>
+        <v>1.050894710770422</v>
       </c>
       <c r="I8">
-        <v>0.6752586837151782</v>
+        <v>0.9162083551050131</v>
       </c>
       <c r="J8">
-        <v>0.1943893554298626</v>
+        <v>0.1933130497587285</v>
       </c>
       <c r="K8">
-        <v>3.85210149604444</v>
+        <v>1.603180590583179</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.7290617147492853</v>
+        <v>1.243442317106421</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.0415341365527695</v>
+        <v>0.02196891395630018</v>
       </c>
       <c r="D9">
-        <v>0.1719686423528657</v>
+        <v>0.1630449956598738</v>
       </c>
       <c r="E9">
-        <v>0.1917357988721662</v>
+        <v>0.1651104023186818</v>
       </c>
       <c r="F9">
-        <v>1.424902354823971</v>
+        <v>1.732122553335415</v>
       </c>
       <c r="G9">
-        <v>1.046726478474838</v>
+        <v>1.09518215870726</v>
       </c>
       <c r="H9">
-        <v>0.6140712339956735</v>
+        <v>1.04740993280241</v>
       </c>
       <c r="I9">
-        <v>0.8281966318797345</v>
+        <v>0.9330259523735052</v>
       </c>
       <c r="J9">
-        <v>0.2519362611954676</v>
+        <v>0.2047425792852522</v>
       </c>
       <c r="K9">
-        <v>5.205175554686775</v>
+        <v>1.982425150454105</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6672860536521767</v>
+        <v>1.216864277625774</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.04780438434380585</v>
+        <v>0.02404985572283636</v>
       </c>
       <c r="D10">
-        <v>0.2011393111692996</v>
+        <v>0.1700682306119603</v>
       </c>
       <c r="E10">
-        <v>0.22501810213911</v>
+        <v>0.1722634285003082</v>
       </c>
       <c r="F10">
-        <v>1.629660693138334</v>
+        <v>1.756924410543277</v>
       </c>
       <c r="G10">
-        <v>1.210822221271968</v>
+        <v>1.11610211174164</v>
       </c>
       <c r="H10">
-        <v>0.6766541917250493</v>
+        <v>1.047845926592913</v>
       </c>
       <c r="I10">
-        <v>0.9525006592578507</v>
+        <v>0.9486530990162976</v>
       </c>
       <c r="J10">
-        <v>0.2965786492650011</v>
+        <v>0.2137206781407315</v>
       </c>
       <c r="K10">
-        <v>6.218255052752625</v>
+        <v>2.262738650413041</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6286463214677482</v>
+        <v>1.199880254461256</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.05066681124632311</v>
+        <v>0.02498965561743205</v>
       </c>
       <c r="D11">
-        <v>0.2146037358437525</v>
+        <v>0.1733156842200003</v>
       </c>
       <c r="E11">
-        <v>0.2405368052741466</v>
+        <v>0.1756005775356755</v>
       </c>
       <c r="F11">
-        <v>1.727959142654981</v>
+        <v>1.769430050605052</v>
       </c>
       <c r="G11">
-        <v>1.289953492413673</v>
+        <v>1.126544858401843</v>
       </c>
       <c r="H11">
-        <v>0.7074413733581935</v>
+        <v>1.048698887291124</v>
       </c>
       <c r="I11">
-        <v>1.012272274472735</v>
+        <v>0.9564805714614408</v>
       </c>
       <c r="J11">
-        <v>0.3175430760275901</v>
+        <v>0.2179326269197901</v>
       </c>
       <c r="K11">
-        <v>6.684914509237672</v>
+        <v>2.390627793284182</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6127250008574379</v>
+        <v>1.192705649559265</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.05175272251317153</v>
+        <v>0.02534454321223478</v>
       </c>
       <c r="D12">
-        <v>0.2197343564451728</v>
+        <v>0.1745529167205149</v>
       </c>
       <c r="E12">
-        <v>0.2464753396123029</v>
+        <v>0.1768762504800208</v>
       </c>
       <c r="F12">
-        <v>1.766015435371571</v>
+        <v>1.774342329969912</v>
       </c>
       <c r="G12">
-        <v>1.320645991551345</v>
+        <v>1.130633383348339</v>
       </c>
       <c r="H12">
-        <v>0.7194712516393906</v>
+        <v>1.049116321146357</v>
       </c>
       <c r="I12">
-        <v>1.035428487095146</v>
+        <v>0.9595485599898126</v>
       </c>
       <c r="J12">
-        <v>0.3255893598507527</v>
+        <v>0.2195460501556568</v>
       </c>
       <c r="K12">
-        <v>6.862614292130331</v>
+        <v>2.439109251901414</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6069520898468639</v>
+        <v>1.190068123222119</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.05151875542908613</v>
+        <v>0.02526815622704959</v>
       </c>
       <c r="D13">
-        <v>0.2186278978161198</v>
+        <v>0.1742861243578915</v>
       </c>
       <c r="E13">
-        <v>0.2451934871995576</v>
+        <v>0.1766009791991507</v>
       </c>
       <c r="F13">
-        <v>1.757780729333703</v>
+        <v>1.773276513048643</v>
       </c>
       <c r="G13">
-        <v>1.314002065077432</v>
+        <v>1.129746868509301</v>
       </c>
       <c r="H13">
-        <v>0.7168632327586977</v>
+        <v>1.049022214377743</v>
       </c>
       <c r="I13">
-        <v>1.030417175032952</v>
+        <v>0.9588831840669059</v>
       </c>
       <c r="J13">
-        <v>0.3238514434656565</v>
+        <v>0.2191977488053567</v>
       </c>
       <c r="K13">
-        <v>6.824297032478682</v>
+        <v>2.428665578590255</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6081836917488772</v>
+        <v>1.190632632372207</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.05075610709035061</v>
+        <v>0.02501887242748779</v>
       </c>
       <c r="D14">
-        <v>0.2150251709493034</v>
+        <v>0.1734173222907032</v>
       </c>
       <c r="E14">
-        <v>0.2410240848958196</v>
+        <v>0.1757052880612449</v>
       </c>
       <c r="F14">
-        <v>1.731072806601148</v>
+        <v>1.769830641682191</v>
       </c>
       <c r="G14">
-        <v>1.292463505665381</v>
+        <v>1.126878531385586</v>
       </c>
       <c r="H14">
-        <v>0.708423402026142</v>
+        <v>1.04873133544325</v>
       </c>
       <c r="I14">
-        <v>1.014166533575832</v>
+        <v>0.956730891300495</v>
       </c>
       <c r="J14">
-        <v>0.3182028139327855</v>
+        <v>0.218064994017567</v>
       </c>
       <c r="K14">
-        <v>6.699513293465259</v>
+        <v>2.394615343451107</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6122448170261805</v>
+        <v>1.192487068347134</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.05028923632550431</v>
+        <v>0.02486604907298329</v>
       </c>
       <c r="D15">
-        <v>0.2128226799535611</v>
+        <v>0.1728861297638105</v>
       </c>
       <c r="E15">
-        <v>0.2384785081421938</v>
+        <v>0.1751582099304727</v>
       </c>
       <c r="F15">
-        <v>1.714824773629914</v>
+        <v>1.767742976135438</v>
       </c>
       <c r="G15">
-        <v>1.279367812588305</v>
+        <v>1.125139080595289</v>
       </c>
       <c r="H15">
-        <v>0.7033033330921228</v>
+        <v>1.048565471087755</v>
       </c>
       <c r="I15">
-        <v>1.00428235574374</v>
+        <v>0.9554260966635724</v>
       </c>
       <c r="J15">
-        <v>0.3147572789564634</v>
+        <v>0.2173735539920614</v>
       </c>
       <c r="K15">
-        <v>6.62321281444332</v>
+        <v>2.373765412849195</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6147662957396776</v>
+        <v>1.193633297598225</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.04761756419414098</v>
+        <v>0.02398829910864464</v>
       </c>
       <c r="D16">
-        <v>0.2002636236527877</v>
+        <v>0.1698570537992907</v>
       </c>
       <c r="E16">
-        <v>0.2240121589687476</v>
+        <v>0.1720470124103883</v>
       </c>
       <c r="F16">
-        <v>1.623347987275281</v>
+        <v>1.756131816770676</v>
       </c>
       <c r="G16">
-        <v>1.205747886516747</v>
+        <v>1.115438367409951</v>
       </c>
       <c r="H16">
-        <v>0.6746919908939617</v>
+        <v>1.047803382060692</v>
       </c>
       <c r="I16">
-        <v>0.9486641862301042</v>
+        <v>0.9481560632437009</v>
       </c>
       <c r="J16">
-        <v>0.2952228741929446</v>
+        <v>0.2134479949292825</v>
       </c>
       <c r="K16">
-        <v>6.187887139178372</v>
+        <v>2.254388213138498</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6297216417945748</v>
+        <v>1.200360232319333</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.04598151422043628</v>
+        <v>0.02344806981953695</v>
       </c>
       <c r="D17">
-        <v>0.192611572168687</v>
+        <v>0.1680122269671074</v>
       </c>
       <c r="E17">
-        <v>0.2152395617138723</v>
+        <v>0.170159705162412</v>
       </c>
       <c r="F17">
-        <v>1.568612190267359</v>
+        <v>1.749322575814816</v>
       </c>
       <c r="G17">
-        <v>1.161788857232267</v>
+        <v>1.109725145814963</v>
       </c>
       <c r="H17">
-        <v>0.6577594620037246</v>
+        <v>1.047503743988699</v>
       </c>
       <c r="I17">
-        <v>0.9154098891232536</v>
+        <v>0.9438805825034393</v>
       </c>
       <c r="J17">
-        <v>0.2834161873172434</v>
+        <v>0.2110725701324867</v>
       </c>
       <c r="K17">
-        <v>5.922418409037789</v>
+        <v>2.181248988860375</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.6393327004388567</v>
+        <v>1.204628265954291</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.04504141395567984</v>
+        <v>0.02313670196505768</v>
       </c>
       <c r="D18">
-        <v>0.1882283663397999</v>
+        <v>0.1669560813047042</v>
       </c>
       <c r="E18">
-        <v>0.2102289211317085</v>
+        <v>0.1690820070703154</v>
       </c>
       <c r="F18">
-        <v>1.537608601527751</v>
+        <v>1.745521162419664</v>
       </c>
       <c r="G18">
-        <v>1.136921367316376</v>
+        <v>1.106526171665791</v>
       </c>
       <c r="H18">
-        <v>0.6482359893744274</v>
+        <v>1.047392998253457</v>
       </c>
       <c r="I18">
-        <v>0.8965826424815901</v>
+        <v>0.941489043878633</v>
       </c>
       <c r="J18">
-        <v>0.2766862138801827</v>
+        <v>0.2097183099528479</v>
       </c>
       <c r="K18">
-        <v>5.770264223924187</v>
+        <v>2.139216422829406</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.645015430074082</v>
+        <v>1.207135034421604</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.04472325369101782</v>
+        <v>0.02303116821688178</v>
       </c>
       <c r="D19">
-        <v>0.1867472742194423</v>
+        <v>0.1665993406523256</v>
       </c>
       <c r="E19">
-        <v>0.2085382200978501</v>
+        <v>0.16871846194298</v>
       </c>
       <c r="F19">
-        <v>1.527190937190866</v>
+        <v>1.74425381099995</v>
       </c>
       <c r="G19">
-        <v>1.128570830383126</v>
+        <v>1.105457989440595</v>
       </c>
       <c r="H19">
-        <v>0.6450474468243783</v>
+        <v>1.047366072042848</v>
       </c>
       <c r="I19">
-        <v>0.8902578613842991</v>
+        <v>0.9406909041737492</v>
       </c>
       <c r="J19">
-        <v>0.2744176453352907</v>
+        <v>0.2092618430716158</v>
       </c>
       <c r="K19">
-        <v>5.718835201571437</v>
+        <v>2.124990992589744</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6469655542753898</v>
+        <v>1.207992697565686</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.04615557646044266</v>
+        <v>0.02350564470813055</v>
       </c>
       <c r="D20">
-        <v>0.1934242503781149</v>
+        <v>0.1682081000988234</v>
       </c>
       <c r="E20">
-        <v>0.2161697322406511</v>
+        <v>0.1703598017314008</v>
       </c>
       <c r="F20">
-        <v>1.574388699358693</v>
+        <v>1.750035515016776</v>
       </c>
       <c r="G20">
-        <v>1.166424685107529</v>
+        <v>1.110324304929406</v>
       </c>
       <c r="H20">
-        <v>0.6595393735855737</v>
+        <v>1.047529263641252</v>
       </c>
       <c r="I20">
-        <v>0.9189184400058963</v>
+        <v>0.9443287138566205</v>
       </c>
       <c r="J20">
-        <v>0.2846666334285572</v>
+        <v>0.2113241934399923</v>
       </c>
       <c r="K20">
-        <v>5.950621446209141</v>
+        <v>2.189031150593792</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6382934507402993</v>
+        <v>1.204168553963164</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.05098005741106704</v>
+        <v>0.02509212020033402</v>
       </c>
       <c r="D21">
-        <v>0.2160824788990823</v>
+        <v>0.1736723076875677</v>
       </c>
       <c r="E21">
-        <v>0.2422469946490153</v>
+        <v>0.1759680494533811</v>
       </c>
       <c r="F21">
-        <v>1.738894190250576</v>
+        <v>1.770837976769783</v>
       </c>
       <c r="G21">
-        <v>1.298769466790532</v>
+        <v>1.1277173853166</v>
       </c>
       <c r="H21">
-        <v>0.7108919806621259</v>
+        <v>1.048814208244494</v>
       </c>
       <c r="I21">
-        <v>1.018925080260033</v>
+        <v>0.9573602477063901</v>
       </c>
       <c r="J21">
-        <v>0.3198589241721379</v>
+        <v>0.218397210220914</v>
       </c>
       <c r="K21">
-        <v>6.736137258308929</v>
+        <v>2.404615303113985</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.611044862099547</v>
+        <v>1.19194022194862</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.05414491420487622</v>
+        <v>0.02612317307313106</v>
       </c>
       <c r="D22">
-        <v>0.2310792183439929</v>
+        <v>0.1772871247509045</v>
       </c>
       <c r="E22">
-        <v>0.2596550809780922</v>
+        <v>0.1797031183069819</v>
       </c>
       <c r="F22">
-        <v>1.851311870249759</v>
+        <v>1.785463691660226</v>
       </c>
       <c r="G22">
-        <v>1.38954773995178</v>
+        <v>1.139866732575058</v>
       </c>
       <c r="H22">
-        <v>0.7466395401369255</v>
+        <v>1.050204582512407</v>
       </c>
       <c r="I22">
-        <v>1.087359269088921</v>
+        <v>0.9664829482325104</v>
       </c>
       <c r="J22">
-        <v>0.3434928796558125</v>
+        <v>0.2231274106424337</v>
       </c>
       <c r="K22">
-        <v>7.255346331635792</v>
+        <v>2.545818225290645</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.5947390147981366</v>
+        <v>1.184410780905168</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.05245450483598546</v>
+        <v>0.02557341541337621</v>
       </c>
       <c r="D23">
-        <v>0.2230565336432164</v>
+        <v>0.175353856681653</v>
       </c>
       <c r="E23">
-        <v>0.2503279605864961</v>
+        <v>0.1777032581158764</v>
       </c>
       <c r="F23">
-        <v>1.790830880863112</v>
+        <v>1.777563159285478</v>
       </c>
       <c r="G23">
-        <v>1.340676213103592</v>
+        <v>1.133310547711204</v>
       </c>
       <c r="H23">
-        <v>0.7273467565360363</v>
+        <v>1.049412034076909</v>
       </c>
       <c r="I23">
-        <v>1.050532543205392</v>
+        <v>0.9615583708530551</v>
       </c>
       <c r="J23">
-        <v>0.3308163026490405</v>
+        <v>0.2205929448364827</v>
       </c>
       <c r="K23">
-        <v>6.977647066606039</v>
+        <v>2.470427888019287</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.6032978399744735</v>
+        <v>1.188387054857515</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.0460768814448187</v>
+        <v>0.02347961753844885</v>
       </c>
       <c r="D24">
-        <v>0.1930567888289971</v>
+        <v>0.1681195319286104</v>
       </c>
       <c r="E24">
-        <v>0.2157491004076419</v>
+        <v>0.1702693152106249</v>
       </c>
       <c r="F24">
-        <v>1.571775698831303</v>
+        <v>1.749712842313755</v>
       </c>
       <c r="G24">
-        <v>1.164327571532169</v>
+        <v>1.110053158424989</v>
       </c>
       <c r="H24">
-        <v>0.6587340203541032</v>
+        <v>1.047517534597318</v>
       </c>
       <c r="I24">
-        <v>0.9173313217947765</v>
+        <v>0.9441259065979892</v>
       </c>
       <c r="J24">
-        <v>0.284101127532665</v>
+        <v>0.2112103990302074</v>
       </c>
       <c r="K24">
-        <v>5.937869408730705</v>
+        <v>2.185512784897696</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6387628072138511</v>
+        <v>1.204376224605625</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.03923074507201818</v>
+        <v>0.02119660449764638</v>
       </c>
       <c r="D25">
-        <v>0.1613744371412764</v>
+        <v>0.1605056202085677</v>
       </c>
       <c r="E25">
-        <v>0.1797687200131506</v>
+        <v>0.1625499624409485</v>
       </c>
       <c r="F25">
-        <v>1.353504967963687</v>
+        <v>1.724068287865634</v>
       </c>
       <c r="G25">
-        <v>0.9897670275013581</v>
+        <v>1.088293287914652</v>
       </c>
       <c r="H25">
-        <v>0.5928464273700484</v>
+        <v>1.047827784326557</v>
       </c>
       <c r="I25">
-        <v>0.7849236003690976</v>
+        <v>0.9279044817980235</v>
       </c>
       <c r="J25">
-        <v>0.2359980042541139</v>
+        <v>0.2015490539178018</v>
       </c>
       <c r="K25">
-        <v>4.836320560216109</v>
+        <v>1.87953396951724</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6828735460765216</v>
+        <v>1.223607659433078</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_0_71/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_71/res_line/pl_mw.xlsx
@@ -424,31 +424,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.01949460275857007</v>
+        <v>0.03420029993814921</v>
       </c>
       <c r="D2">
-        <v>0.1550633964863124</v>
+        <v>0.1384953551046664</v>
       </c>
       <c r="E2">
-        <v>0.1571220482723845</v>
+        <v>0.1541607004991477</v>
       </c>
       <c r="F2">
-        <v>1.708931743415746</v>
+        <v>1.205275220621459</v>
       </c>
       <c r="G2">
-        <v>1.075093835350231</v>
+        <v>0.8720057154413894</v>
       </c>
       <c r="H2">
-        <v>1.050068151600698</v>
+        <v>0.5500733000213103</v>
       </c>
       <c r="I2">
-        <v>0.918156576558296</v>
+        <v>0.6952165967306101</v>
       </c>
       <c r="J2">
-        <v>0.1948255997740915</v>
+        <v>0.2021141520371614</v>
       </c>
       <c r="K2">
-        <v>1.655386014733381</v>
+        <v>4.037405453680094</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.239475840486527</v>
+        <v>0.7198093224813178</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -471,31 +471,31 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01832807991338825</v>
+        <v>0.03078962480049796</v>
       </c>
       <c r="D3">
-        <v>0.1514779638615806</v>
+        <v>0.1232110178848274</v>
       </c>
       <c r="E3">
-        <v>0.153602383405218</v>
+        <v>0.1372479171213605</v>
       </c>
       <c r="F3">
-        <v>1.700992747160967</v>
+        <v>1.111282571597968</v>
       </c>
       <c r="G3">
-        <v>1.067889848414708</v>
+        <v>0.7977286659634615</v>
       </c>
       <c r="H3">
-        <v>1.05283553585322</v>
+        <v>0.5241194311352331</v>
       </c>
       <c r="I3">
-        <v>0.9129079596918359</v>
+        <v>0.6384385721736763</v>
       </c>
       <c r="J3">
-        <v>0.1905101747098357</v>
+        <v>0.1799184867391972</v>
       </c>
       <c r="K3">
-        <v>1.50418787687812</v>
+        <v>3.501342355384793</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.251296326750733</v>
+        <v>0.7473666354983592</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -518,31 +518,31 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.01760542479859595</v>
+        <v>0.02869240220061897</v>
       </c>
       <c r="D4">
-        <v>0.149327481499455</v>
+        <v>0.113918086178515</v>
       </c>
       <c r="E4">
-        <v>0.1515195150002171</v>
+        <v>0.1270489938265982</v>
       </c>
       <c r="F4">
-        <v>1.697256849473021</v>
+        <v>1.056366134381221</v>
       </c>
       <c r="G4">
-        <v>1.064319515806361</v>
+        <v>0.7544979946678012</v>
       </c>
       <c r="H4">
-        <v>1.055148988853105</v>
+        <v>0.5095177079859639</v>
       </c>
       <c r="I4">
-        <v>0.9103511746336679</v>
+        <v>0.6053088188548159</v>
       </c>
       <c r="J4">
-        <v>0.1879787733455558</v>
+        <v>0.1666128779398477</v>
       </c>
       <c r="K4">
-        <v>1.41170260747856</v>
+        <v>3.174196395076535</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.259080556884527</v>
+        <v>0.7654567383383579</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -565,31 +565,31 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.01730933722922856</v>
+        <v>0.02783669552100321</v>
       </c>
       <c r="D5">
-        <v>0.1484640279873872</v>
+        <v>0.110151883836906</v>
       </c>
       <c r="E5">
-        <v>0.1506904007283403</v>
+        <v>0.1229351138733961</v>
       </c>
       <c r="F5">
-        <v>1.696020123208839</v>
+        <v>1.034636252308857</v>
       </c>
       <c r="G5">
-        <v>1.063078267157707</v>
+        <v>0.7374301364116036</v>
       </c>
       <c r="H5">
-        <v>1.056245968411574</v>
+        <v>0.5038805246385607</v>
       </c>
       <c r="I5">
-        <v>0.9094762274126467</v>
+        <v>0.5922095092038262</v>
       </c>
       <c r="J5">
-        <v>0.1869768863124861</v>
+        <v>0.1612642140518261</v>
       </c>
       <c r="K5">
-        <v>1.374103365154212</v>
+        <v>3.041297349666252</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.2623851120021</v>
+        <v>0.7731122074870669</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -612,31 +612,31 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.01726007581734024</v>
+        <v>0.02769453293414159</v>
       </c>
       <c r="D6">
-        <v>0.1483214323456821</v>
+        <v>0.1095276968604537</v>
       </c>
       <c r="E6">
-        <v>0.1505539151383957</v>
+        <v>0.1222544366953002</v>
       </c>
       <c r="F6">
-        <v>1.695832001441346</v>
+        <v>1.031065711049337</v>
       </c>
       <c r="G6">
-        <v>1.062885042160431</v>
+        <v>0.7346278340118033</v>
       </c>
       <c r="H6">
-        <v>1.056437429273686</v>
+        <v>0.5029627625301885</v>
       </c>
       <c r="I6">
-        <v>0.909341013316336</v>
+        <v>0.5900576596826781</v>
       </c>
       <c r="J6">
-        <v>0.186812314439301</v>
+        <v>0.1603802966795413</v>
       </c>
       <c r="K6">
-        <v>1.367865460202211</v>
+        <v>3.019252237306432</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.26294183019791</v>
+        <v>0.774400226747332</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -659,31 +659,31 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.01760143812074944</v>
+        <v>0.02868086656389579</v>
       </c>
       <c r="D7">
-        <v>0.1493157844040951</v>
+        <v>0.1138672128192297</v>
       </c>
       <c r="E7">
-        <v>0.1515082536216319</v>
+        <v>0.1269933470848486</v>
       </c>
       <c r="F7">
-        <v>1.697239014696379</v>
+        <v>1.056070518460587</v>
       </c>
       <c r="G7">
-        <v>1.064301911715191</v>
+        <v>0.7542656503868699</v>
       </c>
       <c r="H7">
-        <v>1.055163158952539</v>
+        <v>0.5094404435093196</v>
       </c>
       <c r="I7">
-        <v>0.9103386993990696</v>
+        <v>0.6051305756219563</v>
       </c>
       <c r="J7">
-        <v>0.1879651414595429</v>
+        <v>0.1665404562032435</v>
       </c>
       <c r="K7">
-        <v>1.411195168224481</v>
+        <v>3.172402499953876</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.259124587049556</v>
+        <v>0.7655588477703716</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -706,31 +706,31 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.01909372131397191</v>
+        <v>0.03302474225384344</v>
       </c>
       <c r="D8">
-        <v>0.1538165937961935</v>
+        <v>0.1332048294243862</v>
       </c>
       <c r="E8">
-        <v>0.1558922330694124</v>
+        <v>0.14828790272459</v>
       </c>
       <c r="F8">
-        <v>1.705957646383297</v>
+        <v>1.172252756405143</v>
       </c>
       <c r="G8">
-        <v>1.072432390802675</v>
+        <v>0.8458717372946865</v>
       </c>
       <c r="H8">
-        <v>1.050894710770422</v>
+        <v>0.5408336104724327</v>
       </c>
       <c r="I8">
-        <v>0.9162083551050131</v>
+        <v>0.6752586837151782</v>
       </c>
       <c r="J8">
-        <v>0.1933130497587285</v>
+        <v>0.1943893554298768</v>
       </c>
       <c r="K8">
-        <v>1.603180590583179</v>
+        <v>3.852101496044384</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.243442317106421</v>
+        <v>0.7290617147493492</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -753,31 +753,31 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.02196891395630018</v>
+        <v>0.0415341365530395</v>
       </c>
       <c r="D9">
-        <v>0.1630449956598738</v>
+        <v>0.1719686423528657</v>
       </c>
       <c r="E9">
-        <v>0.1651104023186818</v>
+        <v>0.1917357988721804</v>
       </c>
       <c r="F9">
-        <v>1.732122553335415</v>
+        <v>1.424902354823956</v>
       </c>
       <c r="G9">
-        <v>1.09518215870726</v>
+        <v>1.046726478474824</v>
       </c>
       <c r="H9">
-        <v>1.04740993280241</v>
+        <v>0.6140712339956877</v>
       </c>
       <c r="I9">
-        <v>0.9330259523735052</v>
+        <v>0.8281966318797274</v>
       </c>
       <c r="J9">
-        <v>0.2047425792852522</v>
+        <v>0.2519362611955813</v>
       </c>
       <c r="K9">
-        <v>1.982425150454105</v>
+        <v>5.205175554686832</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.216864277625774</v>
+        <v>0.6672860536521767</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -800,31 +800,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.02404985572283636</v>
+        <v>0.04780438434384848</v>
       </c>
       <c r="D10">
-        <v>0.1700682306119603</v>
+        <v>0.2011393111693991</v>
       </c>
       <c r="E10">
-        <v>0.1722634285003082</v>
+        <v>0.2250181021391313</v>
       </c>
       <c r="F10">
-        <v>1.756924410543277</v>
+        <v>1.629660693138334</v>
       </c>
       <c r="G10">
-        <v>1.11610211174164</v>
+        <v>1.210822221271997</v>
       </c>
       <c r="H10">
-        <v>1.047845926592913</v>
+        <v>0.6766541917249072</v>
       </c>
       <c r="I10">
-        <v>0.9486530990162976</v>
+        <v>0.9525006592578649</v>
       </c>
       <c r="J10">
-        <v>0.2137206781407315</v>
+        <v>0.2965786492649158</v>
       </c>
       <c r="K10">
-        <v>2.262738650413041</v>
+        <v>6.218255052752625</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.199880254461256</v>
+        <v>0.6286463214677269</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -847,31 +847,31 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.02498965561743205</v>
+        <v>0.05066681124674943</v>
       </c>
       <c r="D11">
-        <v>0.1733156842200003</v>
+        <v>0.2146037358439941</v>
       </c>
       <c r="E11">
-        <v>0.1756005775356755</v>
+        <v>0.2405368052741466</v>
       </c>
       <c r="F11">
-        <v>1.769430050605052</v>
+        <v>1.727959142654981</v>
       </c>
       <c r="G11">
-        <v>1.126544858401843</v>
+        <v>1.289953492413616</v>
       </c>
       <c r="H11">
-        <v>1.048698887291124</v>
+        <v>0.7074413733581935</v>
       </c>
       <c r="I11">
-        <v>0.9564805714614408</v>
+        <v>1.01227227447275</v>
       </c>
       <c r="J11">
-        <v>0.2179326269197901</v>
+        <v>0.3175430760276896</v>
       </c>
       <c r="K11">
-        <v>2.390627793284182</v>
+        <v>6.684914509237672</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.192705649559265</v>
+        <v>0.6127250008574379</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -894,31 +894,31 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.02534454321223478</v>
+        <v>0.05175272251305785</v>
       </c>
       <c r="D12">
-        <v>0.1745529167205149</v>
+        <v>0.2197343564450591</v>
       </c>
       <c r="E12">
-        <v>0.1768762504800208</v>
+        <v>0.2464753396123029</v>
       </c>
       <c r="F12">
-        <v>1.774342329969912</v>
+        <v>1.766015435371571</v>
       </c>
       <c r="G12">
-        <v>1.130633383348339</v>
+        <v>1.320645991551316</v>
       </c>
       <c r="H12">
-        <v>1.049116321146357</v>
+        <v>0.7194712516392769</v>
       </c>
       <c r="I12">
-        <v>0.9595485599898126</v>
+        <v>1.035428487095132</v>
       </c>
       <c r="J12">
-        <v>0.2195460501556568</v>
+        <v>0.3255893598507669</v>
       </c>
       <c r="K12">
-        <v>2.439109251901414</v>
+        <v>6.862614292130445</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.190068123222119</v>
+        <v>0.6069520898468639</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -941,31 +941,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.02526815622704959</v>
+        <v>0.05151875542890849</v>
       </c>
       <c r="D13">
-        <v>0.1742861243578915</v>
+        <v>0.2186278978161198</v>
       </c>
       <c r="E13">
-        <v>0.1766009791991507</v>
+        <v>0.2451934871995576</v>
       </c>
       <c r="F13">
-        <v>1.773276513048643</v>
+        <v>1.757780729333703</v>
       </c>
       <c r="G13">
-        <v>1.129746868509301</v>
+        <v>1.31400206507746</v>
       </c>
       <c r="H13">
-        <v>1.049022214377743</v>
+        <v>0.716863232758584</v>
       </c>
       <c r="I13">
-        <v>0.9588831840669059</v>
+        <v>1.030417175032966</v>
       </c>
       <c r="J13">
-        <v>0.2191977488053567</v>
+        <v>0.3238514434656423</v>
       </c>
       <c r="K13">
-        <v>2.428665578590255</v>
+        <v>6.824297032478796</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.190632632372207</v>
+        <v>0.6081836917488701</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -988,31 +988,31 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.02501887242748779</v>
+        <v>0.0507561070904643</v>
       </c>
       <c r="D14">
-        <v>0.1734173222907032</v>
+        <v>0.2150251709494739</v>
       </c>
       <c r="E14">
-        <v>0.1757052880612449</v>
+        <v>0.2410240848958125</v>
       </c>
       <c r="F14">
-        <v>1.769830641682191</v>
+        <v>1.731072806601134</v>
       </c>
       <c r="G14">
-        <v>1.126878531385586</v>
+        <v>1.292463505665353</v>
       </c>
       <c r="H14">
-        <v>1.04873133544325</v>
+        <v>0.7084234020261135</v>
       </c>
       <c r="I14">
-        <v>0.956730891300495</v>
+        <v>1.014166533575832</v>
       </c>
       <c r="J14">
-        <v>0.218064994017567</v>
+        <v>0.3182028139327286</v>
       </c>
       <c r="K14">
-        <v>2.394615343451107</v>
+        <v>6.699513293465088</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.192487068347134</v>
+        <v>0.6122448170261947</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1035,31 +1035,31 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.02486604907298329</v>
+        <v>0.0502892363254972</v>
       </c>
       <c r="D15">
-        <v>0.1728861297638105</v>
+        <v>0.2128226799534616</v>
       </c>
       <c r="E15">
-        <v>0.1751582099304727</v>
+        <v>0.2384785081421867</v>
       </c>
       <c r="F15">
-        <v>1.767742976135438</v>
+        <v>1.714824773629914</v>
       </c>
       <c r="G15">
-        <v>1.125139080595289</v>
+        <v>1.27936781258839</v>
       </c>
       <c r="H15">
-        <v>1.048565471087755</v>
+        <v>0.7033033330922365</v>
       </c>
       <c r="I15">
-        <v>0.9554260966635724</v>
+        <v>1.004282355743726</v>
       </c>
       <c r="J15">
-        <v>0.2173735539920614</v>
+        <v>0.3147572789564208</v>
       </c>
       <c r="K15">
-        <v>2.373765412849195</v>
+        <v>6.623212814443491</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.193633297598225</v>
+        <v>0.6147662957396776</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1082,31 +1082,31 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.02398829910864464</v>
+        <v>0.04761756419413388</v>
       </c>
       <c r="D16">
-        <v>0.1698570537992907</v>
+        <v>0.2002636236527735</v>
       </c>
       <c r="E16">
-        <v>0.1720470124103883</v>
+        <v>0.2240121589687476</v>
       </c>
       <c r="F16">
-        <v>1.756131816770676</v>
+        <v>1.623347987275267</v>
       </c>
       <c r="G16">
-        <v>1.115438367409951</v>
+        <v>1.20574788651669</v>
       </c>
       <c r="H16">
-        <v>1.047803382060692</v>
+        <v>0.6746919908939617</v>
       </c>
       <c r="I16">
-        <v>0.9481560632437009</v>
+        <v>0.94866418623009</v>
       </c>
       <c r="J16">
-        <v>0.2134479949292825</v>
+        <v>0.2952228741929446</v>
       </c>
       <c r="K16">
-        <v>2.254388213138498</v>
+        <v>6.187887139178429</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.200360232319333</v>
+        <v>0.6297216417945677</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1129,31 +1129,31 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.02344806981953695</v>
+        <v>0.04598151422043628</v>
       </c>
       <c r="D17">
-        <v>0.1680122269671074</v>
+        <v>0.1926115721686017</v>
       </c>
       <c r="E17">
-        <v>0.170159705162412</v>
+        <v>0.2152395617138581</v>
       </c>
       <c r="F17">
-        <v>1.749322575814816</v>
+        <v>1.568612190267373</v>
       </c>
       <c r="G17">
-        <v>1.109725145814963</v>
+        <v>1.161788857232324</v>
       </c>
       <c r="H17">
-        <v>1.047503743988699</v>
+        <v>0.6577594620037246</v>
       </c>
       <c r="I17">
-        <v>0.9438805825034393</v>
+        <v>0.9154098891232536</v>
       </c>
       <c r="J17">
-        <v>0.2110725701324867</v>
+        <v>0.2834161873172008</v>
       </c>
       <c r="K17">
-        <v>2.181248988860375</v>
+        <v>5.922418409037789</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.204628265954291</v>
+        <v>0.6393327004388638</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1176,31 +1176,31 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.02313670196505768</v>
+        <v>0.04504141395579353</v>
       </c>
       <c r="D18">
-        <v>0.1669560813047042</v>
+        <v>0.1882283663397857</v>
       </c>
       <c r="E18">
-        <v>0.1690820070703154</v>
+        <v>0.2102289211317085</v>
       </c>
       <c r="F18">
-        <v>1.745521162419664</v>
+        <v>1.537608601527751</v>
       </c>
       <c r="G18">
-        <v>1.106526171665791</v>
+        <v>1.136921367316461</v>
       </c>
       <c r="H18">
-        <v>1.047392998253457</v>
+        <v>0.6482359893745127</v>
       </c>
       <c r="I18">
-        <v>0.941489043878633</v>
+        <v>0.8965826424815901</v>
       </c>
       <c r="J18">
-        <v>0.2097183099528479</v>
+        <v>0.2766862138802253</v>
       </c>
       <c r="K18">
-        <v>2.139216422829406</v>
+        <v>5.770264223924357</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.207135034421604</v>
+        <v>0.6450154300741389</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1223,31 +1223,31 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.02303116821688178</v>
+        <v>0.0447232536911315</v>
       </c>
       <c r="D19">
-        <v>0.1665993406523256</v>
+        <v>0.1867472742195559</v>
       </c>
       <c r="E19">
-        <v>0.16871846194298</v>
+        <v>0.2085382200978856</v>
       </c>
       <c r="F19">
-        <v>1.74425381099995</v>
+        <v>1.527190937190881</v>
       </c>
       <c r="G19">
-        <v>1.105457989440595</v>
+        <v>1.128570830383069</v>
       </c>
       <c r="H19">
-        <v>1.047366072042848</v>
+        <v>0.6450474468243499</v>
       </c>
       <c r="I19">
-        <v>0.9406909041737492</v>
+        <v>0.8902578613842991</v>
       </c>
       <c r="J19">
-        <v>0.2092618430716158</v>
+        <v>0.274417645335177</v>
       </c>
       <c r="K19">
-        <v>2.124990992589744</v>
+        <v>5.718835201571437</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.207992697565686</v>
+        <v>0.6469655542753827</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1270,31 +1270,31 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.02350564470813055</v>
+        <v>0.04615557646031476</v>
       </c>
       <c r="D20">
-        <v>0.1682081000988234</v>
+        <v>0.1934242503781149</v>
       </c>
       <c r="E20">
-        <v>0.1703598017314008</v>
+        <v>0.2161697322406511</v>
       </c>
       <c r="F20">
-        <v>1.750035515016776</v>
+        <v>1.574388699358693</v>
       </c>
       <c r="G20">
-        <v>1.110324304929406</v>
+        <v>1.166424685107529</v>
       </c>
       <c r="H20">
-        <v>1.047529263641252</v>
+        <v>0.6595393735855737</v>
       </c>
       <c r="I20">
-        <v>0.9443287138566205</v>
+        <v>0.9189184400058963</v>
       </c>
       <c r="J20">
-        <v>0.2113241934399923</v>
+        <v>0.2846666334285572</v>
       </c>
       <c r="K20">
-        <v>2.189031150593792</v>
+        <v>5.950621446208913</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.204168553963164</v>
+        <v>0.6382934507402354</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1317,31 +1317,31 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.02509212020033402</v>
+        <v>0.05098005741116651</v>
       </c>
       <c r="D21">
-        <v>0.1736723076875677</v>
+        <v>0.2160824788990823</v>
       </c>
       <c r="E21">
-        <v>0.1759680494533811</v>
+        <v>0.2422469946489798</v>
       </c>
       <c r="F21">
-        <v>1.770837976769783</v>
+        <v>1.738894190250591</v>
       </c>
       <c r="G21">
-        <v>1.1277173853166</v>
+        <v>1.298769466790475</v>
       </c>
       <c r="H21">
-        <v>1.048814208244494</v>
+        <v>0.7108919806621259</v>
       </c>
       <c r="I21">
-        <v>0.9573602477063901</v>
+        <v>1.018925080260033</v>
       </c>
       <c r="J21">
-        <v>0.218397210220914</v>
+        <v>0.3198589241722232</v>
       </c>
       <c r="K21">
-        <v>2.404615303113985</v>
+        <v>6.736137258308815</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.19194022194862</v>
+        <v>0.611044862099547</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1364,31 +1364,31 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.02612317307313106</v>
+        <v>0.05414491420487622</v>
       </c>
       <c r="D22">
-        <v>0.1772871247509045</v>
+        <v>0.2310792183439929</v>
       </c>
       <c r="E22">
-        <v>0.1797031183069819</v>
+        <v>0.2596550809780638</v>
       </c>
       <c r="F22">
-        <v>1.785463691660226</v>
+        <v>1.851311870249759</v>
       </c>
       <c r="G22">
-        <v>1.139866732575058</v>
+        <v>1.389547739951865</v>
       </c>
       <c r="H22">
-        <v>1.050204582512407</v>
+        <v>0.7466395401370676</v>
       </c>
       <c r="I22">
-        <v>0.9664829482325104</v>
+        <v>1.08735926908895</v>
       </c>
       <c r="J22">
-        <v>0.2231274106424337</v>
+        <v>0.3434928796557841</v>
       </c>
       <c r="K22">
-        <v>2.545818225290645</v>
+        <v>7.255346331635792</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.184410780905168</v>
+        <v>0.5947390147982006</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1411,31 +1411,31 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.02557341541337621</v>
+        <v>0.05245450483587177</v>
       </c>
       <c r="D23">
-        <v>0.175353856681653</v>
+        <v>0.2230565336432306</v>
       </c>
       <c r="E23">
-        <v>0.1777032581158764</v>
+        <v>0.2503279605864819</v>
       </c>
       <c r="F23">
-        <v>1.777563159285478</v>
+        <v>1.790830880863112</v>
       </c>
       <c r="G23">
-        <v>1.133310547711204</v>
+        <v>1.34067621310362</v>
       </c>
       <c r="H23">
-        <v>1.049412034076909</v>
+        <v>0.7273467565360079</v>
       </c>
       <c r="I23">
-        <v>0.9615583708530551</v>
+        <v>1.050532543205378</v>
       </c>
       <c r="J23">
-        <v>0.2205929448364827</v>
+        <v>0.3308163026490973</v>
       </c>
       <c r="K23">
-        <v>2.470427888019287</v>
+        <v>6.977647066606039</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.188387054857515</v>
+        <v>0.6032978399744735</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1458,31 +1458,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.02347961753844885</v>
+        <v>0.04607688144524502</v>
       </c>
       <c r="D24">
-        <v>0.1681195319286104</v>
+        <v>0.1930567888290966</v>
       </c>
       <c r="E24">
-        <v>0.1702693152106249</v>
+        <v>0.2157491004076491</v>
       </c>
       <c r="F24">
-        <v>1.749712842313755</v>
+        <v>1.571775698831331</v>
       </c>
       <c r="G24">
-        <v>1.110053158424989</v>
+        <v>1.164327571532226</v>
       </c>
       <c r="H24">
-        <v>1.047517534597318</v>
+        <v>0.6587340203541316</v>
       </c>
       <c r="I24">
-        <v>0.9441259065979892</v>
+        <v>0.9173313217947765</v>
       </c>
       <c r="J24">
-        <v>0.2112103990302074</v>
+        <v>0.2841011275326935</v>
       </c>
       <c r="K24">
-        <v>2.185512784897696</v>
+        <v>5.937869408730592</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.204376224605625</v>
+        <v>0.6387628072138298</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1505,31 +1505,31 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.02119660449764638</v>
+        <v>0.03923074507213897</v>
       </c>
       <c r="D25">
-        <v>0.1605056202085677</v>
+        <v>0.161374437141248</v>
       </c>
       <c r="E25">
-        <v>0.1625499624409485</v>
+        <v>0.1797687200131577</v>
       </c>
       <c r="F25">
-        <v>1.724068287865634</v>
+        <v>1.353504967963687</v>
       </c>
       <c r="G25">
-        <v>1.088293287914652</v>
+        <v>0.9897670275012871</v>
       </c>
       <c r="H25">
-        <v>1.047827784326557</v>
+        <v>0.5928464273699348</v>
       </c>
       <c r="I25">
-        <v>0.9279044817980235</v>
+        <v>0.7849236003690905</v>
       </c>
       <c r="J25">
-        <v>0.2015490539178018</v>
+        <v>0.2359980042540712</v>
       </c>
       <c r="K25">
-        <v>1.87953396951724</v>
+        <v>4.836320560216109</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.223607659433078</v>
+        <v>0.6828735460765216</v>
       </c>
       <c r="O25">
         <v>0</v>
